--- a/pred_ohlcv/54_21/2020-01-15 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>653228.9738415836</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>652678.9728415835</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>646580.9728415835</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>587676.0122415836</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -730,7 +730,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>646531.0122415836</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>626531.0122415836</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>622664.1522415836</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>588073.7525415836</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>584307.1281415836</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>584357.1281415836</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>556474.3466415836</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>401073.4893415836</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>403073.4893415836</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>419180.4893415836</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>428528.0174415836</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>428690.0174415836</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>353492.0080415836</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>348175.5439415836</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>383222.5439415836</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>391559.5439415836</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>377559.5439415836</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-287734.7387368334</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2107724.826466358</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2163607.076366358</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2115688.564966358</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2115633.564966358</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2744128.093693623</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2765900.109593623</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2750790.576193623</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2586848.126400309</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2587003.246400309</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2581945.577600309</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2774906.000500309</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2693696.411200308</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2693648.411200308</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2815858.808500308</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2815858.808500308</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2813742.808500308</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2827808.808500308</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-3255320.827900308</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-3245877.827900308</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-3285018.236500308</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2859923.080400309</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2917158.113800309</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2908625.113800309</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2504334.524900309</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2553448.364000309</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2531546.498200309</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2496674.002600309</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2417029.639700309</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2325277.842500309</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2456263.186200309</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2421267.997300309</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2446127.083600309</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2335604.446000309</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2384306.544541645</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 OGO ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>571640.3612415836</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>653228.9738415836</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>646580.9728415835</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>587676.0122415836</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>646481.0122415836</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>626531.0122415836</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>627831.0122415836</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>622664.1522415836</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>584357.1281415836</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>581408.3381415836</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>556520.3466415836</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>556474.3466415836</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>401073.4893415836</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>419180.4893415836</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>403315.2397415836</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>438559.2397415836</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>438559.2397415836</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>413529.5074415836</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>414455.7697415836</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>428578.0174415836</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>428690.0174415836</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>353492.0080415836</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>364505.1017415836</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>348175.5439415836</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>383222.5439415836</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>391559.5439415836</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>377559.5439415836</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-287734.7387368334</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2107724.826466358</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2163607.076366358</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2115688.564966358</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2115633.564966358</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2116854.884966358</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2173314.004966358</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2782128.093693623</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2744128.093693623</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2765900.109593623</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2750675.109593623</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2750790.576193623</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2586848.126400309</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2587003.246400309</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2581945.577600309</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2581995.577200309</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2581947.477200309</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2774906.000500309</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2693696.411200308</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2693648.411200308</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2815858.808500308</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2815858.808500308</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2813742.808500308</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2827808.808500308</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2853403.835500308</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2853452.835500308</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2893164.948100308</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2859923.080400309</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2859875.080600309</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2851567.457300309</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2908625.113800309</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2813241.213800309</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2504334.524900309</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2553448.364000309</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2531546.498200309</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2496674.002600309</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2417029.639700309</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2325277.842500309</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2464049.186200309</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2456263.186200309</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-2421267.997300309</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2446127.083600309</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2435604.446000309</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2335604.446000309</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-2384306.544541645</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
